--- a/src/test/resources/dataTest/ExcelData.xlsx
+++ b/src/test/resources/dataTest/ExcelData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AnhTester_SeleniumJava\SeleniumAutoTestParallel092024\src\test\resources\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC803F06-40EB-4A87-AE92-F5F9D610535C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCBC25E-BA5E-410F-AF70-8A963F6DEAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="3" r:id="rId1"/>
     <sheet name="Customer" sheetId="4" r:id="rId2"/>
+    <sheet name="Group" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>EMAIL</t>
   </si>
@@ -109,10 +110,16 @@
     <t>admin@example.com</t>
   </si>
   <si>
-    <t>24092024 Viettel A3</t>
-  </si>
-  <si>
-    <t>24092024 Viettel A4</t>
+    <t>GROUP_NAME</t>
+  </si>
+  <si>
+    <t>24092024 Viettel A9</t>
+  </si>
+  <si>
+    <t>24092024 Viettel A10</t>
+  </si>
+  <si>
+    <t>Group 02 - 2509</t>
   </si>
 </sst>
 </file>
@@ -450,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,13 +517,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00DB3448-755E-42E3-A5A9-2F2891E61627}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{24ECAA3B-74B5-460D-804E-AA34156BD512}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{A74F998E-E1DD-4C02-8E50-6FFA167A97DD}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{F607D6AF-08C0-497C-BBED-CBE466615D49}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{24ECAA3B-74B5-460D-804E-AA34156BD512}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{A74F998E-E1DD-4C02-8E50-6FFA167A97DD}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{F607D6AF-08C0-497C-BBED-CBE466615D49}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{1D0D15DD-8549-42B7-9659-85004BDD513A}"/>
+    <hyperlink ref="A3" r:id="rId6" xr:uid="{A91F79DF-6F4A-45EA-B640-D6C7845485B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -526,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49F8809-4630-46F9-95B4-007304CBD06C}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -585,7 +601,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -623,7 +639,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -666,4 +682,32 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B3EA47-436E-46C3-B669-E53317217F25}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/dataTest/ExcelData.xlsx
+++ b/src/test/resources/dataTest/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AnhTester_SeleniumJava\SeleniumAutoTestParallel092024\src\test\resources\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCBC25E-BA5E-410F-AF70-8A963F6DEAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD12BD42-707C-49EA-9558-393609280B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>EMAIL</t>
   </si>
@@ -113,20 +113,53 @@
     <t>GROUP_NAME</t>
   </si>
   <si>
-    <t>24092024 Viettel A9</t>
-  </si>
-  <si>
-    <t>24092024 Viettel A10</t>
-  </si>
-  <si>
     <t>Group 02 - 2509</t>
+  </si>
+  <si>
+    <t>CustomerName 01102024A1</t>
+  </si>
+  <si>
+    <t>CustomerName 01102024A2</t>
+  </si>
+  <si>
+    <t>CustomerName 01102024A3</t>
+  </si>
+  <si>
+    <t>CustomerName 01102024A4</t>
+  </si>
+  <si>
+    <t>CustomerName 01102024A5</t>
+  </si>
+  <si>
+    <t>CustomerName 01102024A6</t>
+  </si>
+  <si>
+    <t>CustomerName 01102024A7</t>
+  </si>
+  <si>
+    <t>CustomerName 01102024A8</t>
+  </si>
+  <si>
+    <t>CustomerName 01102024A9</t>
+  </si>
+  <si>
+    <t>CustomerName 01102024A10</t>
+  </si>
+  <si>
+    <t>CustomerName 01102024A11</t>
+  </si>
+  <si>
+    <t>CustomerName 01102024A12</t>
+  </si>
+  <si>
+    <t>CustomerName 01102024A13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +171,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -459,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -540,15 +579,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49F8809-4630-46F9-95B4-007304CBD06C}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
@@ -601,7 +640,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -639,7 +678,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -675,10 +714,431 @@
         <v>20</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>123456771</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>100000</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>123456762</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>100000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>123456753</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>100000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>123456744</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>100000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>123456735</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8">
+        <v>100000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>123456726</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>100000</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>123456717</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>100000</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>123456708</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>100000</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>123456699</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>100000</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>123456690</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>100000</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>123456681</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>100000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{29FF4634-7AAE-4093-B7F1-3D200A9BF092}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{16D61DE2-B51E-48EE-B6A6-04A0EF8370C1}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{6CBD3DF2-4F79-4170-BF62-A0A86DD2FC0D}"/>
+    <hyperlink ref="D5:D14" r:id="rId4" display="https://anhtester.com" xr:uid="{0E776ED2-8AF0-4B81-8EC2-33CAE3FADC2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -704,7 +1164,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
